--- a/genshin/434095359674158698_2020-09-12_19-11-42.xlsx
+++ b/genshin/434095359674158698_2020-09-12_19-11-42.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-12-12 02:41:42</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44177.11229166666</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -618,10 +632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-10-10 01:23:23</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44114.0579050926</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -697,10 +709,8 @@
           <t>3496631107</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-09-16 01:06:27</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44090.04614583333</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -776,10 +786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-09-15 16:24:47</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44089.68387731481</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -847,10 +855,8 @@
           <t>3491444276</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-09-14 15:01:50</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44088.62627314815</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -922,10 +928,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:53:30</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44087.91215277778</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -985,10 +989,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:57:18</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44087.873125</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1056,10 +1058,8 @@
           <t>3484697834</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-09-13 18:56:07</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44087.78896990741</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1135,10 +1135,8 @@
           <t>3484913995</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-09-13 18:42:58</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44087.77983796296</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1206,10 +1204,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-09-13 18:17:30</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44087.76215277778</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1285,10 +1281,8 @@
           <t>3488591442</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-09-13 18:03:34</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44087.75247685185</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1364,10 +1358,8 @@
           <t>3488543941</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-09-13 17:52:18</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44087.74465277778</v>
       </c>
       <c r="I13" t="n">
         <v>2</v>
@@ -1435,10 +1427,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-09-13 17:30:20</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44087.72939814815</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1502,10 +1492,8 @@
           <t>3484697834</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-09-13 17:28:38</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44087.72821759259</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1569,10 +1557,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-09-13 12:58:19</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44087.54049768519</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1648,10 +1634,8 @@
           <t>3487079631</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-09-13 11:01:01</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44087.45903935185</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1715,10 +1699,8 @@
           <t>3486353537</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-09-13 11:00:30</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44087.45868055556</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1782,10 +1764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-09-13 10:20:05</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44087.43061342592</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1849,10 +1829,8 @@
           <t>3486790492</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-09-13 09:25:19</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44087.39258101852</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1920,10 +1898,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-09-13 09:16:52</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44087.38671296297</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1987,10 +1963,8 @@
           <t>3486729499</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-09-13 09:06:04</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44087.37921296297</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2066,10 +2040,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-09-13 08:19:06</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44087.34659722223</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2141,10 +2113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-09-13 07:31:58</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44087.31386574074</v>
       </c>
       <c r="I24" t="n">
         <v>2</v>
@@ -2212,10 +2182,8 @@
           <t>3486518499</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-09-13 07:20:50</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44087.30613425926</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2279,10 +2247,8 @@
           <t>3486140150</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-09-13 07:17:37</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44087.30390046296</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2354,10 +2320,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-09-13 07:11:37</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44087.2997337963</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -2421,10 +2385,8 @@
           <t>3486503025</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-09-13 07:06:56</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44087.29648148148</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
@@ -2492,10 +2454,8 @@
           <t>3486497638</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-09-13 07:01:27</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44087.29267361111</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2573,10 +2533,8 @@
           <t>3486462373</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-09-13 06:16:30</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44087.26145833333</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2652,10 +2610,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-09-13 06:15:19</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44087.26063657407</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2731,10 +2687,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-09-13 05:37:38</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44087.23446759259</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2798,10 +2752,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-09-13 04:23:13</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44087.18278935185</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2869,10 +2821,8 @@
           <t>3486353537</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-09-13 03:58:58</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44087.16594907407</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2940,10 +2890,8 @@
           <t>3486353537</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-09-13 03:07:50</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44087.13043981481</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -3011,10 +2959,8 @@
           <t>3486353537</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-09-13 02:55:56</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44087.12217592593</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3082,10 +3028,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-09-13 02:14:22</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44087.09331018518</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3161,10 +3105,8 @@
           <t>3486253011</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-09-13 01:44:10</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44087.07233796296</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3232,10 +3174,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-09-13 01:36:21</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44087.06690972222</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3303,10 +3243,8 @@
           <t>3486226450</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-09-13 01:27:31</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44087.06077546296</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3384,10 +3322,8 @@
           <t>3485552289</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-09-13 01:26:31</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44087.06008101852</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3464,10 +3400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-09-13 01:24:29</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44087.05866898148</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3535,10 +3469,8 @@
           <t>3484775898</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-09-13 01:23:46</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44087.0581712963</v>
       </c>
       <c r="I43" t="n">
         <v>3</v>
@@ -3615,10 +3547,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-09-13 01:18:51</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44087.05475694445</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3690,10 +3620,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-09-13 01:16:15</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44087.05295138889</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3757,10 +3685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-09-13 01:07:56</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44087.04717592592</v>
       </c>
       <c r="I46" t="n">
         <v>6</v>
@@ -3837,10 +3763,8 @@
           <t>3484913995</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-09-13 00:57:37</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44087.04001157408</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3912,10 +3836,8 @@
           <t>3486141250</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-09-13 00:53:07</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44087.03688657407</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3987,10 +3909,8 @@
           <t>3486140150</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-09-13 00:51:58</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44087.03608796297</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4062,10 +3982,8 @@
           <t>3484913995</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-09-13 00:45:54</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44087.031875</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4133,10 +4051,8 @@
           <t>3484767750</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-09-13 00:40:38</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44087.02821759259</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4204,10 +4120,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-09-13 00:30:42</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44087.02131944444</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4283,10 +4197,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-09-13 00:12:10</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44087.00844907408</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4354,10 +4266,8 @@
           <t>3485994394</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-09-13 00:09:30</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44087.00659722222</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -4433,10 +4343,8 @@
           <t>3485989372</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-09-13 00:08:23</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44087.00582175926</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4504,10 +4412,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-09-13 00:07:06</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44087.00493055556</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4575,10 +4481,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-09-12 23:55:16</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44086.99671296297</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4646,10 +4550,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-09-12 23:54:35</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44086.99623842593</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4717,10 +4619,8 @@
           <t>3484728734</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-09-12 23:54:31</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44086.99619212963</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4788,10 +4688,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-09-12 23:50:37</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44086.99348379629</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4855,10 +4753,8 @@
           <t>3485909753</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-09-12 23:49:54</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44086.99298611111</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4930,10 +4826,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-09-12 23:45:08</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44086.98967592593</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4997,10 +4891,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-09-12 23:23:57</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44086.97496527778</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5072,10 +4964,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-09-12 23:21:41</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44086.9733912037</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5151,10 +5041,8 @@
           <t>3485737345</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-09-12 23:08:53</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44086.96450231481</v>
       </c>
       <c r="I65" t="n">
         <v>3</v>
@@ -5214,10 +5102,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-09-12 23:08:26</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44086.96418981482</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5289,10 +5175,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-09-12 23:04:22</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44086.96136574074</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5356,10 +5240,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-09-12 22:58:42</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44086.95743055556</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
@@ -5427,10 +5309,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-09-12 22:45:17</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44086.94811342593</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5494,10 +5374,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-09-12 22:41:31</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44086.94549768518</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5573,10 +5451,8 @@
           <t>3484774359</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-09-12 22:40:17</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44086.94464120371</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5640,10 +5516,8 @@
           <t>3485282753</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-09-12 22:36:37</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44086.9420949074</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5707,10 +5581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-09-12 22:35:22</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44086.94122685185</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5786,10 +5658,8 @@
           <t>3485552289</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-09-12 22:28:36</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44086.93652777778</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5865,10 +5735,8 @@
           <t>3485532861</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-09-12 22:25:12</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44086.93416666667</v>
       </c>
       <c r="I75" t="n">
         <v>2</v>
@@ -5940,10 +5808,8 @@
           <t>3484902136</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-09-12 22:21:45</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44086.93177083333</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6011,10 +5877,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-09-12 22:20:24</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44086.93083333333</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6090,10 +5954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-09-12 22:20:21</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44086.93079861111</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6157,10 +6019,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-09-12 22:20:07</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44086.93063657408</v>
       </c>
       <c r="I79" t="n">
         <v>1</v>
@@ -6228,10 +6088,8 @@
           <t>3484902136</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-09-12 22:19:24</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44086.93013888889</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6307,10 +6165,8 @@
           <t>3485489811</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-09-12 22:17:23</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44086.92873842592</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6378,10 +6234,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-09-12 22:17:22</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44086.92872685185</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6453,10 +6307,8 @@
           <t>3484774359</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-09-12 22:16:50</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44086.92835648148</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6524,10 +6376,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-09-12 22:16:23</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44086.92804398148</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6591,10 +6441,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-09-12 22:15:51</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44086.92767361111</v>
       </c>
       <c r="I85" t="n">
         <v>1</v>
@@ -6670,10 +6518,8 @@
           <t>3484697834</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-09-12 22:15:17</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44086.92728009259</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6737,10 +6583,8 @@
           <t>3484774359</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-09-12 22:13:45</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44086.92621527778</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6812,10 +6656,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-09-12 22:06:52</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44086.92143518518</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6879,10 +6721,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-09-12 21:57:32</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44086.9149537037</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6950,10 +6790,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-09-12 21:49:39</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44086.90947916666</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7013,10 +6851,8 @@
           <t>3485349403</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-09-12 21:46:13</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44086.90709490741</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7084,10 +6920,8 @@
           <t>3484774359</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-09-12 21:45:51</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44086.90684027778</v>
       </c>
       <c r="I92" t="n">
         <v>3</v>
@@ -7151,10 +6985,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-09-12 21:45:42</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44086.90673611111</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7226,10 +7058,8 @@
           <t>3485351219</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-09-12 21:44:52</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44086.90615740741</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7304,10 +7134,8 @@
           <t>3485339715</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-09-12 21:43:49</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44086.90542824074</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
@@ -7371,10 +7199,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-09-12 21:43:40</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44086.90532407408</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7450,10 +7276,8 @@
           <t>3485279761</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-09-12 21:41:53</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44086.90408564815</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7513,10 +7337,8 @@
           <t>3485279761</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-09-12 21:41:42</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44086.90395833334</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7576,10 +7398,8 @@
           <t>3485313548</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-09-12 21:38:26</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44086.90168981482</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7655,10 +7475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-09-12 21:37:13</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44086.90084490741</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7722,10 +7540,8 @@
           <t>3485282753</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-09-12 21:31:13</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44086.89667824074</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -7793,10 +7609,8 @@
           <t>3485279761</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-09-12 21:30:21</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44086.89607638889</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7864,10 +7678,8 @@
           <t>3485279049</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-09-12 21:29:52</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44086.89574074074</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7935,10 +7747,8 @@
           <t>3484774359</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-09-12 21:29:27</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44086.89545138889</v>
       </c>
       <c r="I104" t="n">
         <v>2</v>
@@ -8006,10 +7816,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-09-12 21:23:14</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44086.89113425926</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8077,10 +7885,8 @@
           <t>3485243793</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-09-12 21:22:19</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44086.89049768518</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8140,10 +7946,8 @@
           <t>3485242967</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-09-12 21:21:46</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44086.89011574074</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8203,10 +8007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-09-12 21:21:37</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44086.89001157408</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8274,10 +8076,8 @@
           <t>3485237935</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-09-12 21:21:21</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44086.88982638889</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8341,10 +8141,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-09-12 21:20:03</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44086.88892361111</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8412,10 +8210,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-09-12 21:15:46</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44086.88594907407</v>
       </c>
       <c r="I111" t="n">
         <v>1</v>
@@ -8483,10 +8279,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-09-12 21:13:42</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44086.88451388889</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8550,10 +8344,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-09-12 21:11:43</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44086.88313657408</v>
       </c>
       <c r="I113" t="n">
         <v>1</v>
@@ -8625,10 +8417,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-09-12 21:11:37</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44086.88306712963</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8700,10 +8490,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-09-12 21:08:49</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44086.88112268518</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8779,10 +8567,8 @@
           <t>3485185170</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-09-12 21:08:06</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44086.880625</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8842,10 +8628,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-09-12 21:07:02</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44086.87988425926</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8917,10 +8701,8 @@
           <t>3485170141</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-09-12 21:04:48</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44086.87833333333</v>
       </c>
       <c r="I118" t="n">
         <v>1</v>
@@ -8984,10 +8766,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-09-12 21:04:33</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44086.87815972222</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9055,10 +8835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-09-12 21:03:33</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44086.87746527778</v>
       </c>
       <c r="I120" t="n">
         <v>3</v>
@@ -9130,10 +8908,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-09-12 21:03:23</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44086.87734953704</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9201,10 +8977,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-09-12 21:02:56</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44086.87703703704</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9268,10 +9042,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:59:15</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44086.87447916667</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9335,10 +9107,8 @@
           <t>3484703335</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:56:48</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44086.87277777777</v>
       </c>
       <c r="I124" t="n">
         <v>2</v>
@@ -9402,10 +9172,8 @@
           <t>3485119626</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:54:58</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44086.87150462963</v>
       </c>
       <c r="I125" t="n">
         <v>4</v>
@@ -9477,10 +9245,8 @@
           <t>3485114586</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:54:36</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44086.87125</v>
       </c>
       <c r="I126" t="n">
         <v>1</v>
@@ -9552,10 +9318,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:52:49</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44086.87001157407</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9619,10 +9383,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:48:18</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44086.866875</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9686,10 +9448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:45:24</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44086.86486111111</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9765,10 +9525,8 @@
           <t>3484819784</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:43:55</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44086.86383101852</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9828,10 +9586,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:43:25</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44086.8634837963</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9903,10 +9659,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:42:30</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44086.86284722222</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -9982,10 +9736,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:39:43</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44086.86091435186</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10053,10 +9805,8 @@
           <t>3484774359</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:39:38</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44086.86085648148</v>
       </c>
       <c r="I134" t="n">
         <v>22</v>
@@ -10124,10 +9874,8 @@
           <t>3485049804</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:38:39</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44086.86017361111</v>
       </c>
       <c r="I135" t="n">
         <v>3</v>
@@ -10195,10 +9943,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:38:28</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44086.86004629629</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10270,10 +10016,8 @@
           <t>3485044794</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:38:02</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44086.85974537037</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10349,10 +10093,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:37:54</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44086.85965277778</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10412,10 +10154,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:37:29</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44086.85936342592</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10491,10 +10231,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:36:03</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44086.85836805555</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10570,10 +10308,8 @@
           <t>3484719971</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:35:57</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44086.85829861111</v>
       </c>
       <c r="I141" t="n">
         <v>1</v>
@@ -10649,10 +10385,8 @@
           <t>3485024168</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:33:14</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44086.85641203704</v>
       </c>
       <c r="I142" t="n">
         <v>3</v>
@@ -10728,10 +10462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:33:00</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44086.85625</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10807,10 +10539,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:31:23</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44086.85512731481</v>
       </c>
       <c r="I144" t="n">
         <v>1</v>
@@ -10883,10 +10613,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:30:26</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44086.8544675926</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10954,10 +10682,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:30:03</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44086.85420138889</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11029,10 +10755,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:28:28</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44086.85310185186</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11100,10 +10824,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:27:12</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44086.85222222222</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11171,10 +10893,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:27:03</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44086.85211805555</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11250,10 +10970,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:25:36</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44086.85111111111</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11325,10 +11043,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:24:47</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44086.85054398148</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11392,10 +11108,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:23:48</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44086.84986111111</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11455,10 +11169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:22:58</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44086.84928240741</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11530,10 +11242,8 @@
           <t>3484981834</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:22:38</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44086.84905092593</v>
       </c>
       <c r="I154" t="n">
         <v>1</v>
@@ -11605,10 +11315,8 @@
           <t>3484974951</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:21:20</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44086.84814814815</v>
       </c>
       <c r="I155" t="n">
         <v>1</v>
@@ -11672,10 +11380,8 @@
           <t>3484902136</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:20:24</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44086.8475</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
@@ -11743,10 +11449,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:17:43</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44086.84563657407</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11814,10 +11518,8 @@
           <t>3484728734</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:16:37</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44086.84487268519</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11889,10 +11591,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:16:26</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44086.84474537037</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -11964,10 +11664,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:15:36</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44086.84416666667</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12039,10 +11737,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:14:21</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44086.84329861111</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12106,10 +11802,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:12:52</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44086.84226851852</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12173,10 +11867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:11:52</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44086.84157407407</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12240,10 +11932,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:09:18</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44086.83979166667</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12311,10 +12001,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:08:07</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44086.83896990741</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12386,10 +12074,8 @@
           <t>3484913995</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:08:02</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44086.83891203703</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12465,10 +12151,8 @@
           <t>3484913995</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:07:09</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44086.83829861111</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12544,10 +12228,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:03:38</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44086.83585648148</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12619,10 +12301,8 @@
           <t>3484822776</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:02:47</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44086.83526620371</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12698,10 +12378,8 @@
           <t>3484902136</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:02:44</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44086.83523148148</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12769,10 +12447,8 @@
           <t>3484744230</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:02:43</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44086.83521990741</v>
       </c>
       <c r="I171" t="n">
         <v>1</v>
@@ -12836,10 +12512,8 @@
           <t>3484901389</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-09-12 20:02:14</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44086.83488425926</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12907,10 +12581,8 @@
           <t>3484774359</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:59:42</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44086.833125</v>
       </c>
       <c r="I173" t="n">
         <v>2</v>
@@ -12974,10 +12646,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:59:34</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44086.8330324074</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13037,10 +12707,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:57:46</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44086.8317824074</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13112,10 +12780,8 @@
           <t>3484775898</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:57:25</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44086.83153935185</v>
       </c>
       <c r="I176" t="n">
         <v>27</v>
@@ -13179,10 +12845,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:57:15</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44086.83142361111</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13258,10 +12922,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:56:06</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44086.830625</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13325,10 +12987,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:55:51</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44086.83045138889</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13404,10 +13064,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:55:22</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44086.83011574074</v>
       </c>
       <c r="I180" t="n">
         <v>1</v>
@@ -13479,10 +13137,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:55:04</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44086.82990740741</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13550,10 +13206,8 @@
           <t>3484866324</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:55:04</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44086.82990740741</v>
       </c>
       <c r="I182" t="n">
         <v>7</v>
@@ -13621,10 +13275,8 @@
           <t>3484855974</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:54:53</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44086.82978009259</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13700,10 +13352,8 @@
           <t>3484860388</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:53:56</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44086.82912037037</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13771,10 +13421,8 @@
           <t>3484778654</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:53:34</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44086.82886574074</v>
       </c>
       <c r="I185" t="n">
         <v>1</v>
@@ -13838,10 +13486,8 @@
           <t>3484849199</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:53:06</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44086.82854166667</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13917,10 +13563,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:52:15</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44086.82795138889</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -13992,10 +13636,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:52:08</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44086.82787037037</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14063,10 +13705,8 @@
           <t>3484855974</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:51:53</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44086.82769675926</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14132,10 +13772,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:51:30</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44086.82743055555</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14203,10 +13841,8 @@
           <t>3484719971</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:51:00</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44086.82708333333</v>
       </c>
       <c r="I191" t="n">
         <v>1</v>
@@ -14270,10 +13906,8 @@
           <t>3484774359</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:50:33</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44086.82677083334</v>
       </c>
       <c r="I192" t="n">
         <v>4</v>
@@ -14349,10 +13983,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:50:16</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44086.82657407408</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14420,10 +14052,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:49:06</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44086.82576388889</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14495,10 +14125,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:48:43</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44086.82549768518</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14562,10 +14190,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:48:37</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44086.82542824074</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14633,10 +14259,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:47:51</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44086.82489583334</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14704,10 +14328,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:47:41</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44086.82478009259</v>
       </c>
       <c r="I198" t="n">
         <v>1</v>
@@ -14771,10 +14393,8 @@
           <t>3484774359</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:46:45</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44086.82413194444</v>
       </c>
       <c r="I199" t="n">
         <v>72</v>
@@ -14851,10 +14471,8 @@
           <t>3484819784</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:46:34</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44086.82400462963</v>
       </c>
       <c r="I200" t="n">
         <v>2</v>
@@ -14918,10 +14536,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:46:29</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44086.82394675926</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -14997,10 +14613,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:45:38</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44086.82335648148</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15064,10 +14678,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:45:28</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44086.82324074074</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15127,10 +14739,8 @@
           <t>3484774359</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:45:25</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44086.82320601852</v>
       </c>
       <c r="I204" t="n">
         <v>9</v>
@@ -15198,10 +14808,8 @@
           <t>3484728734</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:45:14</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44086.8230787037</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15269,10 +14877,8 @@
           <t>3484822776</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:45:04</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44086.82296296296</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15340,10 +14946,8 @@
           <t>3484728734</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:45:03</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44086.82295138889</v>
       </c>
       <c r="I207" t="n">
         <v>3</v>
@@ -15419,10 +15023,8 @@
           <t>3484825471</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:44:38</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44086.82266203704</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15490,10 +15092,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:44:23</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44086.82248842593</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15565,10 +15165,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:43:51</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44086.82211805556</v>
       </c>
       <c r="I210" t="n">
         <v>1</v>
@@ -15632,10 +15230,8 @@
           <t>3484775898</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:43:21</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44086.82177083333</v>
       </c>
       <c r="I211" t="n">
         <v>29</v>
@@ -15711,10 +15307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:43:10</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44086.82164351852</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15782,10 +15376,8 @@
           <t>3484719971</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:43:04</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44086.82157407407</v>
       </c>
       <c r="I213" t="n">
         <v>26</v>
@@ -15853,10 +15445,8 @@
           <t>3484809831</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:43:01</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44086.82153935185</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -15920,10 +15510,8 @@
           <t>3484803900</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:42:22</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44086.82108796296</v>
       </c>
       <c r="I215" t="n">
         <v>1</v>
@@ -15999,10 +15587,8 @@
           <t>3484807441</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:41:20</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44086.82037037037</v>
       </c>
       <c r="I216" t="n">
         <v>12</v>
@@ -16066,10 +15652,8 @@
           <t>3484728734</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:40:59</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44086.82012731482</v>
       </c>
       <c r="I217" t="n">
         <v>10</v>
@@ -16145,10 +15729,8 @@
           <t>3484801639</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:40:45</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44086.81996527778</v>
       </c>
       <c r="I218" t="n">
         <v>2</v>
@@ -16224,10 +15806,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:40:43</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44086.81994212963</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16291,10 +15871,8 @@
           <t>3484774359</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:40:29</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44086.81978009259</v>
       </c>
       <c r="I220" t="n">
         <v>18</v>
@@ -16362,10 +15940,8 @@
           <t>3484778654</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:40:25</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44086.8197337963</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16429,10 +16005,8 @@
           <t>3484703335</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:40:06</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44086.81951388889</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16496,10 +16070,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:39:28</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44086.81907407408</v>
       </c>
       <c r="I223" t="n">
         <v>1</v>
@@ -16567,10 +16139,8 @@
           <t>3484797060</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:38:58</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44086.81872685185</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16634,10 +16204,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:38:47</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44086.81859953704</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16701,10 +16269,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:38:44</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44086.81856481481</v>
       </c>
       <c r="I226" t="n">
         <v>15</v>
@@ -16768,10 +16334,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:38:21</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44086.81829861111</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -16835,10 +16399,8 @@
           <t>3484728734</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:38:20</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44086.81828703704</v>
       </c>
       <c r="I228" t="n">
         <v>10</v>
@@ -16906,10 +16468,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:37:51</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44086.81795138889</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -16973,10 +16533,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:37:39</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44086.8178125</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17044,10 +16602,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:37:32</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44086.81773148148</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17111,10 +16667,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:37:32</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44086.81773148148</v>
       </c>
       <c r="I232" t="n">
         <v>2</v>
@@ -17192,10 +16746,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:36:20</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44086.81689814815</v>
       </c>
       <c r="I233" t="n">
         <v>105</v>
@@ -17263,10 +16815,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:36:13</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44086.81681712963</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17330,10 +16880,8 @@
           <t>3484697834</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:36:02</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44086.81668981481</v>
       </c>
       <c r="I235" t="n">
         <v>10</v>
@@ -17397,10 +16945,8 @@
           <t>3484774564</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:35:38</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44086.81641203703</v>
       </c>
       <c r="I236" t="n">
         <v>4</v>
@@ -17470,10 +17016,8 @@
           <t>3484774359</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:35:29</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44086.81630787037</v>
       </c>
       <c r="I237" t="n">
         <v>144</v>
@@ -17545,10 +17089,8 @@
           <t>3484778654</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:35:20</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44086.8162037037</v>
       </c>
       <c r="I238" t="n">
         <v>5</v>
@@ -17616,10 +17158,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:35:08</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44086.81606481481</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17687,10 +17227,8 @@
           <t>3484777689</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:34:41</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44086.81575231482</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17766,10 +17304,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:34:11</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44086.8154050926</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -17837,10 +17373,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:33:59</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44086.8152662037</v>
       </c>
       <c r="I242" t="n">
         <v>1</v>
@@ -17908,10 +17442,8 @@
           <t>3484775898</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:33:27</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44086.81489583333</v>
       </c>
       <c r="I243" t="n">
         <v>99</v>
@@ -17975,10 +17507,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:33:19</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44086.81480324074</v>
       </c>
       <c r="I244" t="n">
         <v>1</v>
@@ -18050,10 +17580,8 @@
           <t>3484767750</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:32:37</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44086.81431712963</v>
       </c>
       <c r="I245" t="n">
         <v>2</v>
@@ -18121,10 +17649,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:32:01</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44086.81390046296</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18200,10 +17726,8 @@
           <t>3484759117</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:31:45</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44086.81371527778</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18271,10 +17795,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:31:41</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44086.81366898148</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18346,10 +17868,8 @@
           <t>3484744230</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:31:37</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44086.81362268519</v>
       </c>
       <c r="I249" t="n">
         <v>4</v>
@@ -18421,10 +17941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:30:31</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44086.81285879629</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18488,10 +18006,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:30:06</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44086.81256944445</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18567,10 +18083,8 @@
           <t>3484760385</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:29:42</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44086.81229166667</v>
       </c>
       <c r="I252" t="n">
         <v>7</v>
@@ -18639,10 +18153,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:29:05</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44086.81186342592</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18706,10 +18218,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:28:44</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44086.81162037037</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18773,10 +18283,8 @@
           <t>3484744230</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:28:20</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44086.81134259259</v>
       </c>
       <c r="I255" t="n">
         <v>56</v>
@@ -18840,10 +18348,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:28:17</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44086.81130787037</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -18915,10 +18421,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:27:58</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44086.81108796296</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -18994,10 +18498,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:27:48</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44086.81097222222</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19069,10 +18571,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:27:32</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44086.81078703704</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19140,10 +18640,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:27:27</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44086.81072916667</v>
       </c>
       <c r="I260" t="n">
         <v>2</v>
@@ -19219,10 +18717,8 @@
           <t>3484742265</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:26:55</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44086.8103587963</v>
       </c>
       <c r="I261" t="n">
         <v>3</v>
@@ -19296,10 +18792,8 @@
           <t>3484737415</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:25:52</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44086.80962962963</v>
       </c>
       <c r="I262" t="n">
         <v>3</v>
@@ -19375,10 +18869,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:25:36</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44086.80944444444</v>
       </c>
       <c r="I263" t="n">
         <v>1</v>
@@ -19438,10 +18930,8 @@
           <t>3484734173</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:25:30</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44086.809375</v>
       </c>
       <c r="I264" t="n">
         <v>5</v>
@@ -19505,10 +18995,8 @@
           <t>3484735578</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:24:38</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44086.80877314815</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19580,10 +19068,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:24:34</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44086.80872685185</v>
       </c>
       <c r="I266" t="n">
         <v>12</v>
@@ -19647,10 +19133,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:24:30</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44086.80868055556</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19710,10 +19194,8 @@
           <t>3484735377</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:24:30</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44086.80868055556</v>
       </c>
       <c r="I268" t="n">
         <v>1</v>
@@ -19789,10 +19271,8 @@
           <t>3484728734</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:24:20</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44086.80856481481</v>
       </c>
       <c r="I269" t="n">
         <v>16</v>
@@ -19868,10 +19348,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:24:14</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44086.80849537037</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -19947,10 +19425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:24:06</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44086.80840277778</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20026,10 +19502,8 @@
           <t>3484728246</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:24:00</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44086.80833333333</v>
       </c>
       <c r="I272" t="n">
         <v>2</v>
@@ -20093,10 +19567,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:23:54</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44086.80826388889</v>
       </c>
       <c r="I273" t="n">
         <v>2</v>
@@ -20172,10 +19644,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:23:27</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44086.80795138889</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20247,10 +19717,8 @@
           <t>3484723558</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:23:18</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44086.80784722222</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20322,10 +19790,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:23:03</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44086.80767361111</v>
       </c>
       <c r="I276" t="n">
         <v>3</v>
@@ -20393,10 +19859,8 @@
           <t>3484723144</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:23:00</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44086.80763888889</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20472,10 +19936,8 @@
           <t>3484719971</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:22:32</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44086.80731481482</v>
       </c>
       <c r="I278" t="n">
         <v>2</v>
@@ -20547,10 +20009,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:22:24</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44086.80722222223</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20618,10 +20078,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:22:12</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44086.80708333333</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20693,10 +20151,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:21:40</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44086.80671296296</v>
       </c>
       <c r="I281" t="n">
         <v>6</v>
@@ -20772,10 +20228,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:21:40</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44086.80671296296</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -20843,10 +20297,8 @@
           <t>3484691628</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:21:24</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44086.80652777778</v>
       </c>
       <c r="I283" t="n">
         <v>2</v>
@@ -20914,10 +20366,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:21:16</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44086.80643518519</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -20981,10 +20431,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:20:43</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44086.80605324074</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21052,10 +20500,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:20:29</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44086.8058912037</v>
       </c>
       <c r="I286" t="n">
         <v>1</v>
@@ -21119,10 +20565,8 @@
           <t>3484716402</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:20:02</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44086.8055787037</v>
       </c>
       <c r="I287" t="n">
         <v>15</v>
@@ -21190,10 +20634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:19:54</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44086.80548611111</v>
       </c>
       <c r="I288" t="n">
         <v>9</v>
@@ -21257,10 +20699,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:19:42</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44086.80534722222</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21332,10 +20772,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:19:35</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44086.8052662037</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21411,10 +20849,8 @@
           <t>3484712163</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:19:33</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44086.80524305555</v>
       </c>
       <c r="I291" t="n">
         <v>1</v>
@@ -21486,10 +20922,8 @@
           <t>3484694556</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:19:28</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44086.80518518519</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21565,10 +20999,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:19:16</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44086.80504629629</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21640,10 +21072,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:19:12</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44086.805</v>
       </c>
       <c r="I294" t="n">
         <v>3</v>
@@ -21715,10 +21145,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:19:05</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44086.80491898148</v>
       </c>
       <c r="I295" t="n">
         <v>1</v>
@@ -21794,10 +21222,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:19:02</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44086.80488425926</v>
       </c>
       <c r="I296" t="n">
         <v>83</v>
@@ -21865,10 +21291,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:19:00</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44086.80486111111</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -21944,10 +21368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:18:53</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44086.80478009259</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22017,10 +21439,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:18:41</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44086.8046412037</v>
       </c>
       <c r="I299" t="n">
         <v>540</v>
@@ -22096,10 +21516,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:18:23</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44086.80443287037</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22163,10 +21581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:18:18</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44086.804375</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22226,10 +21642,8 @@
           <t>3484706152</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:18:17</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44086.80436342592</v>
       </c>
       <c r="I302" t="n">
         <v>2</v>
@@ -22305,10 +21719,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:18:15</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44086.80434027778</v>
       </c>
       <c r="I303" t="n">
         <v>77</v>
@@ -22384,10 +21796,8 @@
           <t>3484703656</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:18:10</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44086.80428240741</v>
       </c>
       <c r="I304" t="n">
         <v>6</v>
@@ -22455,10 +21865,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:18:08</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44086.80425925926</v>
       </c>
       <c r="I305" t="n">
         <v>9</v>
@@ -22530,10 +21938,8 @@
           <t>3484705821</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:18:03</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44086.80420138889</v>
       </c>
       <c r="I306" t="n">
         <v>10</v>
@@ -22609,10 +22015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:18:00</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44086.80416666667</v>
       </c>
       <c r="I307" t="n">
         <v>1</v>
@@ -22680,10 +22084,8 @@
           <t>3484703335</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:17:56</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44086.80412037037</v>
       </c>
       <c r="I308" t="n">
         <v>42</v>
@@ -22747,10 +22149,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:17:53</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44086.80408564815</v>
       </c>
       <c r="I309" t="n">
         <v>13</v>
@@ -22818,10 +22218,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:17:27</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44086.80378472222</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -22889,10 +22287,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:17:15</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44086.80364583333</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -22956,10 +22352,8 @@
           <t>3484694556</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:17:13</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44086.80362268518</v>
       </c>
       <c r="I312" t="n">
         <v>12</v>
@@ -23031,10 +22425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:17:11</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44086.80359953704</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23102,10 +22494,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:17:01</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44086.8034837963</v>
       </c>
       <c r="I314" t="n">
         <v>2</v>
@@ -23174,10 +22564,8 @@
           <t>3484689733</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:16:53</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44086.80339120371</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23245,10 +22633,8 @@
           <t>3484692231</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:16:43</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44086.80327546296</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23316,10 +22702,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:16:29</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44086.80311342593</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23387,10 +22771,8 @@
           <t>3484697834</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:16:28</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44086.80310185185</v>
       </c>
       <c r="I318" t="n">
         <v>80</v>
@@ -23466,10 +22848,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:16:10</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44086.80289351852</v>
       </c>
       <c r="I319" t="n">
         <v>1</v>
@@ -23541,10 +22921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:16:06</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44086.80284722222</v>
       </c>
       <c r="I320" t="n">
         <v>1</v>
@@ -23608,10 +22986,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:15:50</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44086.80266203704</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23679,10 +23055,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:15:48</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44086.80263888889</v>
       </c>
       <c r="I322" t="n">
         <v>46</v>
@@ -23758,10 +23132,8 @@
           <t>3484692231</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:15:40</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44086.8025462963</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -23833,10 +23205,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:15:35</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44086.80248842593</v>
       </c>
       <c r="I324" t="n">
         <v>1</v>
@@ -23908,10 +23278,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:15:32</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44086.80245370371</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -23983,10 +23351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:15:31</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44086.80244212963</v>
       </c>
       <c r="I326" t="n">
         <v>1</v>
@@ -24050,10 +23416,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:15:29</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44086.80241898148</v>
       </c>
       <c r="I327" t="n">
         <v>1</v>
@@ -24129,10 +23493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:15:28</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44086.80240740741</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24201,10 +23563,8 @@
           <t>3484689733</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:15:27</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44086.80239583334</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24280,10 +23640,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:15:26</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44086.80238425926</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24351,10 +23709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:15:26</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44086.80238425926</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24422,10 +23778,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:15:18</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44086.80229166667</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24501,10 +23855,8 @@
           <t>3484691628</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:15:16</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44086.80226851852</v>
       </c>
       <c r="I333" t="n">
         <v>1</v>
@@ -24576,10 +23928,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:14:50</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44086.80196759259</v>
       </c>
       <c r="I334" t="n">
         <v>1</v>
@@ -24655,10 +24005,8 @@
           <t>3484688498</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:14:35</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44086.80179398148</v>
       </c>
       <c r="I335" t="n">
         <v>18</v>
@@ -24722,10 +24070,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:14:24</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44086.80166666667</v>
       </c>
       <c r="I336" t="n">
         <v>1</v>
@@ -24797,10 +24143,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:14:23</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44086.80165509259</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -24868,10 +24212,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:14:21</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44086.80163194444</v>
       </c>
       <c r="I338" t="n">
         <v>1</v>
@@ -24935,10 +24277,8 @@
           <t>3484688136</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:14:20</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44086.80162037037</v>
       </c>
       <c r="I339" t="n">
         <v>4</v>
@@ -24998,10 +24338,8 @@
           <t>3484688089</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:14:18</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44086.80159722222</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25069,10 +24407,8 @@
           <t>3484690125</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:14:15</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44086.8015625</v>
       </c>
       <c r="I341" t="n">
         <v>13</v>
@@ -25144,10 +24480,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:14:03</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44086.80142361111</v>
       </c>
       <c r="I342" t="n">
         <v>1</v>
@@ -25211,10 +24545,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:14:01</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44086.80140046297</v>
       </c>
       <c r="I343" t="n">
         <v>1</v>
@@ -25282,10 +24614,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:13:55</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44086.80133101852</v>
       </c>
       <c r="I344" t="n">
         <v>2</v>
@@ -25353,10 +24683,8 @@
           <t>3484686333</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:13:48</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44086.80125</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25424,10 +24752,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:13:42</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44086.80118055556</v>
       </c>
       <c r="I346" t="n">
         <v>1</v>
@@ -25503,10 +24829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:13:38</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44086.80113425926</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25570,10 +24894,8 @@
           <t>3484683828</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:13:34</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44086.80108796297</v>
       </c>
       <c r="I348" t="n">
         <v>2</v>
@@ -25633,10 +24955,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:13:20</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44086.80092592593</v>
       </c>
       <c r="I349" t="n">
         <v>1</v>
@@ -25700,10 +25020,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:13:12</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44086.80083333333</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -25771,10 +25089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:13:09</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44086.80079861111</v>
       </c>
       <c r="I351" t="n">
         <v>2</v>
@@ -25850,10 +25166,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:13:05</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44086.80075231481</v>
       </c>
       <c r="I352" t="n">
         <v>1</v>
@@ -25925,10 +25239,8 @@
           <t>3484686333</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:13:05</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44086.80075231481</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -25996,10 +25308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:13:01</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44086.80070601852</v>
       </c>
       <c r="I354" t="n">
         <v>169</v>
@@ -26067,10 +25377,8 @@
           <t>3484686167</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:12:59</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44086.80068287037</v>
       </c>
       <c r="I355" t="n">
         <v>1</v>
@@ -26146,10 +25454,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:12:57</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44086.80065972222</v>
       </c>
       <c r="I356" t="n">
         <v>714</v>
@@ -26221,10 +25527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:12:56</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44086.80064814815</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26292,10 +25596,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:12:51</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44086.80059027778</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26371,10 +25673,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:12:48</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44086.80055555556</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26446,10 +25746,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:12:45</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44086.80052083333</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26525,10 +25823,8 @@
           <t>3484685757</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:12:43</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44086.80049768519</v>
       </c>
       <c r="I361" t="n">
         <v>1</v>
@@ -26596,10 +25892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:12:41</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44086.80047453703</v>
       </c>
       <c r="I362" t="n">
         <v>499</v>
@@ -26663,10 +25957,8 @@
           <t>3484677788</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:12:40</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44086.80046296296</v>
       </c>
       <c r="I363" t="n">
         <v>1</v>
@@ -26742,10 +26034,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:12:39</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44086.80045138889</v>
       </c>
       <c r="I364" t="n">
         <v>1</v>
@@ -26821,10 +26111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:12:34</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44086.80039351852</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -26900,10 +26188,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:12:30</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44086.80034722222</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -26979,10 +26265,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:12:30</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44086.80034722222</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27059,10 +26343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:12:29</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44086.80033564815</v>
       </c>
       <c r="I368" t="n">
         <v>1</v>
@@ -27138,10 +26420,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:12:29</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44086.80033564815</v>
       </c>
       <c r="I369" t="n">
         <v>129</v>
@@ -27209,10 +26489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:12:26</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44086.80030092593</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27288,10 +26566,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:12:25</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44086.80028935185</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27367,10 +26643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:12:13</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44086.80015046296</v>
       </c>
       <c r="I372" t="n">
         <v>1</v>
@@ -27442,10 +26716,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:12:13</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44086.80015046296</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27509,10 +26781,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:12:08</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44086.8000925926</v>
       </c>
       <c r="I374" t="n">
         <v>1</v>
@@ -27584,10 +26854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:12:06</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44086.80006944444</v>
       </c>
       <c r="I375" t="n">
         <v>1</v>
@@ -27659,10 +26927,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:12:05</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44086.80005787037</v>
       </c>
       <c r="I376" t="n">
         <v>1</v>
@@ -27730,10 +26996,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:12:05</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44086.80005787037</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -27797,10 +27061,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:12:02</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44086.80002314815</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -27872,10 +27134,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2020-09-12 19:11:57</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44086.79996527778</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
